--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_3/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.15</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.225</v>
+        <v>15.826</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.627</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.835</v>
+        <v>16.911</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.613</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.35</v>
+        <v>7.514</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.618466515366521</v>
+        <v>9.226786583150332</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.27334034780937</v>
+        <v>5.389147830506111</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.32258244567771</v>
+        <v>10.04329624451261</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.21738057683018</v>
+        <v>-4.143510713211281</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.00410889475582</v>
+        <v>4.524686541547009</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.65811022545282</v>
+        <v>7.768972427372351</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.34548461614605</v>
+        <v>1.316906028613108</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.25245619081308</v>
+        <v>17.85762858084618</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.05597709754466</v>
+        <v>19.59902250153951</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.39333104765105</v>
+        <v>-2.196249261361427</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.71503805793576</v>
+        <v>0.2747619475887575</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39.1511107801916</v>
+        <v>4.111535796549919</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.52832487149998</v>
+        <v>10.98895225938701</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.75771975614048</v>
+        <v>-4.230066971038884</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.5923143984456</v>
+        <v>7.421828581939181</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.26028060868802</v>
+        <v>17.04522584245752</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.95315197681548</v>
+        <v>15.59675941315485</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30.09219926668965</v>
+        <v>18.67427549318827</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.308672290627484</v>
+        <v>3.221075739902517</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.18018628365439</v>
+        <v>4.722185367904387</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.91023217627361</v>
+        <v>8.015139353818441</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.73303139230192</v>
+        <v>-3.090856380748566</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.71340856611945</v>
+        <v>13.37749036300568</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.793789642174175</v>
+        <v>12.93023614126691</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.50764662922018</v>
+        <v>19.39191102275277</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.55715688212236</v>
+        <v>21.10785091072857</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.488428609487158</v>
+        <v>-1.841930034444246</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.33924367230656</v>
+        <v>18.59328475152059</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.99311861815224</v>
+        <v>20.85334626509777</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.68783401622537</v>
+        <v>4.266974030541277</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.64856090783327</v>
+        <v>31.59325831530956</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>30.45196119099252</v>
+        <v>30.92879449021443</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.75710260593996</v>
+        <v>32.74935698012045</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.10019448651526</v>
+        <v>34.0567357493377</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.53742120029794</v>
+        <v>36.73309053010924</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13.81014753668832</v>
+        <v>18.95902271706155</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.12085209123398</v>
+        <v>25.77109692321635</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.9549619141124</v>
+        <v>29.48390307594803</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.43915557161093</v>
+        <v>15.48988062427735</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.19083950933984</v>
+        <v>24.59197851286844</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.33082887339187</v>
+        <v>31.53926947517361</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.582653708614771</v>
+        <v>5.764387634690202</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.51810345119448</v>
+        <v>17.20516127988477</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.24877877510935</v>
+        <v>28.92543831005104</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.11299619731889</v>
+        <v>31.62056872400395</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.12690949656307</v>
+        <v>7.923382699907998</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.84095217021702</v>
+        <v>16.13730196872628</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.88846731235557</v>
+        <v>20.48773855057453</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.854052743440775</v>
+        <v>-2.534666985687249</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.70542044333337</v>
+        <v>19.77332233048973</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.35684067135879</v>
+        <v>24.31483611597662</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.06090186182485</v>
+        <v>2.885548996912178</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.02243707751573</v>
+        <v>31.714464479196</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.8239038771215</v>
+        <v>34.01138179418709</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.12135007667902</v>
+        <v>35.78535474548693</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.46228904245275</v>
+        <v>35.30671379638554</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.89792599642169</v>
+        <v>40.06522541688042</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.16860906921725</v>
+        <v>8.701069130419128</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.48096079938835</v>
+        <v>19.2238048468452</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.31179574493238</v>
+        <v>26.36987377808425</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.77038825547468</v>
+        <v>9.071086559642211</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.52211218609915</v>
+        <v>17.84589547639184</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.66023966815681</v>
+        <v>30.09463466653499</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.946635347264305</v>
+        <v>3.569729592356325</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.88244089122695</v>
+        <v>14.82008769320455</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.61083406771379</v>
+        <v>31.47954240399504</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.45029592246634</v>
+        <v>0.7689494513742474</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.48494546938918</v>
+        <v>28.19488539926899</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>9.292788128877547</v>
+        <v>0.1011667012031339</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24.00074638576722</v>
+        <v>9.426700964692067</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.05486546605262</v>
+        <v>17.82520384116199</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.949626894684272</v>
+        <v>-3.274608909596946</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.79398155059442</v>
+        <v>18.50374441958678</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.45331544757691</v>
+        <v>25.44538847443923</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>13.13140414734856</v>
+        <v>-0.6317514542308373</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.08636679935133</v>
+        <v>29.19115417508278</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.8942512945977</v>
+        <v>35.18855577404405</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.21075774670149</v>
+        <v>26.37042842449637</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.55372432812334</v>
+        <v>26.81969062514014</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.99439782337208</v>
+        <v>33.66429139604285</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>13.27567661647077</v>
+        <v>2.292015289086052</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.57741784274848</v>
+        <v>7.463758473950232</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.41839573602862</v>
+        <v>25.10125803035879</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>11.93996537976378</v>
+        <v>7.365050026130628</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.68583548234677</v>
+        <v>16.49503754442786</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.83031065762744</v>
+        <v>28.85996782990803</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7.045325470640051</v>
+        <v>3.633960169451722</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.97443865019668</v>
+        <v>15.43769664384545</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.7104073903839</v>
+        <v>28.00838579616187</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>15.52410302028787</v>
+        <v>-2.18869780322872</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.55245228364524</v>
+        <v>24.83805511533332</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.58236112388918</v>
+        <v>16.93176353177035</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.82401489588941</v>
+        <v>6.550183922718215</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>38.29824284930992</v>
+        <v>25.1212713142844</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>41.81927336743293</v>
+        <v>26.37690195931578</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>15.26271664864998</v>
+        <v>6.078869327376857</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.66398679149761</v>
+        <v>10.89357292265264</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>40.58175363680982</v>
+        <v>13.82025517166986</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>17.46998327557669</v>
+        <v>15.8497700562917</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.61277374718542</v>
+        <v>15.6506829316802</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.86996307991128</v>
+        <v>23.00946987113031</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>13.14983210377993</v>
+        <v>3.145380141909115</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.52512664063349</v>
+        <v>3.981733563527033</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.41598162448952</v>
+        <v>10.86624134299525</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>22.14274782989551</v>
+        <v>-3.397807209246981</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>35.55876913423116</v>
+        <v>16.90160779917165</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.55690892106977</v>
+        <v>25.88940604197229</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.13047169188757</v>
+        <v>15.25097663007306</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.87803449274699</v>
+        <v>33.93404121950236</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>50.44730481337733</v>
+        <v>36.09228950038811</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>22.97518566036492</v>
+        <v>7.177075153143864</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>43.01860741366511</v>
+        <v>11.28469840125017</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>49.13092207309425</v>
+        <v>18.1141137416898</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>32.98245512818946</v>
+        <v>39.32746998592235</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.19070112720019</v>
+        <v>35.86643424713434</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>39.68629342384792</v>
+        <v>47.08511279631328</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.20880526229145</v>
+        <v>51.47347829974757</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16.54873895737354</v>
+        <v>17.45807747317909</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.03123813792241</v>
+        <v>46.04293975931124</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>41.9494305677157</v>
+        <v>47.22050851018314</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.67253831965657</v>
+        <v>20.93545549110877</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.87491888742103</v>
+        <v>36.11082239036446</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>38.1328066167321</v>
+        <v>41.4956400040133</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.44896422408268</v>
+        <v>12.10004138971048</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.88908068397385</v>
+        <v>28.120370525982</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>35.78030038066637</v>
+        <v>36.79429318782284</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>23.51496571747205</v>
+        <v>11.82565244911081</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.98536877019095</v>
+        <v>48.72523215052782</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>40.98384614474809</v>
+        <v>55.80630757815965</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.52434838099919</v>
+        <v>62.15157883216126</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>48.29364566437167</v>
+        <v>72.05961657658395</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.86390708325371</v>
+        <v>77.45993870151658</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.2884905560766</v>
+        <v>32.60725566640683</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>44.41415463529407</v>
+        <v>63.80017351470732</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>50.52666888148023</v>
+        <v>67.08985710654476</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>33.3526109802191</v>
+        <v>41.64179313307219</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>32.55285782990917</v>
+        <v>31.45758901485469</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.04609933920882</v>
+        <v>38.77662845405471</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>43.56708046870721</v>
+        <v>47.59468523374295</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>16.90535708993335</v>
+        <v>9.011327934854467</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>36.3892175625091</v>
+        <v>40.00104208326395</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.30434808588728</v>
+        <v>45.7152071850618</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>19.00755625918705</v>
+        <v>13.69425382940791</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.209816652983</v>
+        <v>30.94025021324849</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.46564060451473</v>
+        <v>40.49404837521168</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>14.81649398280507</v>
+        <v>8.872695857741057</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.25679278674615</v>
+        <v>27.13968682275548</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.14546611471132</v>
+        <v>39.55668722796445</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.88975175291478</v>
+        <v>8.400400064338367</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>37.36064094477169</v>
+        <v>47.14464712855306</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>41.35712789788544</v>
+        <v>58.73660502269961</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>40.88923419062743</v>
+        <v>59.72446976120429</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>48.65605792821648</v>
+        <v>66.25584287392591</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>52.22451005328837</v>
+        <v>77.72561123330115</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.64822815159098</v>
+        <v>23.4205742180113</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>44.7750107141304</v>
+        <v>59.05674052234622</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>50.88418701434072</v>
+        <v>66.93698646974204</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>32.42626098918954</v>
+        <v>38.58568015734448</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.64618187639015</v>
+        <v>19.1594848058806</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.14180640153924</v>
+        <v>28.58194049298042</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.66776792057391</v>
+        <v>35.91212342732489</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>16.0160095695142</v>
+        <v>4.92132006750159</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>35.48972717434542</v>
+        <v>32.40154381913133</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.41457949369791</v>
+        <v>40.54609462736833</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>18.17243900058403</v>
+        <v>10.06898581434782</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.36921804221794</v>
+        <v>27.56663975643579</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.63179950330802</v>
+        <v>42.61058664906843</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>13.91083160673057</v>
+        <v>8.470549067009824</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>30.34484499593911</v>
+        <v>26.81848846858725</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.24161127115058</v>
+        <v>41.10644843378064</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.95955152920708</v>
+        <v>3.367558654578826</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.42450317781341</v>
+        <v>41.48414489353341</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.42751906715102</v>
+        <v>58.8877294549396</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.97988959869076</v>
+        <v>46.40711514284442</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.74936688505699</v>
+        <v>56.91622693637737</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>51.32325682697549</v>
+        <v>72.72805274669554</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>23.75513785855225</v>
+        <v>16.02716517610878</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.87236728081805</v>
+        <v>50.07390853394203</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>49.99182064967594</v>
+        <v>63.37139543932361</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-35.07052269770094</v>
+        <v>11.07090184483581</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-20.06723350954162</v>
+        <v>25.73530337332209</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-16.31414111797015</v>
+        <v>33.61119817759253</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-40.1502596110378</v>
+        <v>7.421495315390377</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-23.9352223539486</v>
+        <v>28.7917067817059</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-19.62545521017167</v>
+        <v>36.70929910660549</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-33.99183290231898</v>
+        <v>16.71238071773526</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-20.70579254239858</v>
+        <v>51.14592082119775</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-17.18483460728672</v>
+        <v>56.17840185761898</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-15.03990785455586</v>
+        <v>30.45584275476677</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-7.577711160359385</v>
+        <v>35.46242349264874</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-4.434173649289477</v>
+        <v>32.60564905862854</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-29.99468032277798</v>
+        <v>18.56464414883746</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-10.20666805451718</v>
+        <v>18.64028433756386</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-4.79731317574938</v>
+        <v>33.10441981109102</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-32.80103612548052</v>
+        <v>18.35779704024415</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-17.78811052794497</v>
+        <v>35.68440902298011</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-13.97062448361795</v>
+        <v>34.70486692226433</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-38.42786024881089</v>
+        <v>4.719975223551426</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-22.16109798892165</v>
+        <v>24.97860825635511</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-17.80424534065833</v>
+        <v>24.31170636428788</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-32.01180503194632</v>
+        <v>9.335813008046465</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-18.68030674557394</v>
+        <v>43.64455608180018</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-34.01628336209053</v>
+        <v>16.56953447645158</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-18.95501957521279</v>
+        <v>40.58576108545026</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-15.20240312419629</v>
+        <v>44.45938877710248</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-39.00661039976019</v>
+        <v>11.34027747995493</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-22.72853923100942</v>
+        <v>43.69842518476222</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-18.4197236061449</v>
+        <v>48.73335685183119</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-32.7825646360933</v>
+        <v>20.17662532958041</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-19.44362938697184</v>
+        <v>64.35315310596495</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-15.923484155941</v>
+        <v>65.93193999109474</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-13.80455544514611</v>
+        <v>62.4135183063872</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-6.321347153824092</v>
+        <v>67.47093433589257</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-3.177275496489898</v>
+        <v>63.36164278586637</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-28.83776926618813</v>
+        <v>23.29663991475985</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-8.969760959347198</v>
+        <v>43.63336036827357</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-3.561891531342567</v>
+        <v>48.0279752608715</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-31.74374686339594</v>
+        <v>21.1380349544687</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-16.67304506707188</v>
+        <v>48.0701096851823</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-12.85543049708282</v>
+        <v>48.13569043351252</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-37.28182866332202</v>
+        <v>9.223822347864576</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-20.95221809007721</v>
+        <v>39.12846523836303</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-16.59563860134342</v>
+        <v>42.35255853952766</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-30.79957768947953</v>
+        <v>17.13732918184079</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-17.4153376332584</v>
+        <v>61.91547905583812</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-33.66593183678712</v>
+        <v>9.145160977586146</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-18.60506343114469</v>
+        <v>34.29365689360669</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-14.85448539519662</v>
+        <v>40.17798227245467</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-38.62469459976231</v>
+        <v>8.053575717205028</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-22.34675344253858</v>
+        <v>41.66158139475768</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-18.04042637364591</v>
+        <v>48.38367364735549</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-32.39246736404148</v>
+        <v>15.98237310744462</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-19.0533111943199</v>
+        <v>61.03434217442194</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-15.53513484949406</v>
+        <v>64.91156182931452</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-13.42522650967732</v>
+        <v>63.49953621515648</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-5.944379265127878</v>
+        <v>67.27922480596651</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-2.80189024729232</v>
+        <v>64.84888145027463</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-28.46434123705859</v>
+        <v>10.96332974330054</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-8.595563674980625</v>
+        <v>34.36863931692989</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-3.191007215217937</v>
+        <v>41.06246782129249</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-31.39488602094976</v>
+        <v>13.8274607822884</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-16.32469291643152</v>
+        <v>40.13886154089725</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-12.50898233732588</v>
+        <v>44.60788941713417</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-36.90117058535088</v>
+        <v>5.821441720674525</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-20.57185067267673</v>
+        <v>35.28459606235468</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-16.21758477553438</v>
+        <v>42.46781483218656</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-30.41083547218702</v>
+        <v>12.98401686196809</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-17.02651016070173</v>
+        <v>56.85705703981375</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-34.51803565950394</v>
+        <v>1.880005042482704</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-19.46193128295549</v>
+        <v>27.72433188559091</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-15.70479567490673</v>
+        <v>38.13799732466919</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-39.54459930236611</v>
+        <v>8.107075747812839</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-23.27215508142976</v>
+        <v>40.42983511004277</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-18.9579964096428</v>
+        <v>50.94533870609314</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-33.33814473370312</v>
+        <v>14.95183437574309</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-20.00426344041254</v>
+        <v>60.61989341908588</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-16.47972476309698</v>
+        <v>68.62517992477011</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-14.3487797409523</v>
+        <v>59.13150503397146</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-6.865414865234541</v>
+        <v>63.21023968718437</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-3.718013424397313</v>
+        <v>62.19920270234444</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-29.37043792897803</v>
+        <v>8.328034381708907</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-9.510330499948395</v>
+        <v>26.88926604307044</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-4.095741881218572</v>
+        <v>44.5911070241381</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-32.24381561951765</v>
+        <v>10.20343822149192</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-17.178202849302</v>
+        <v>36.48112003314064</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-13.35619753446544</v>
+        <v>42.74843269684511</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-37.81844909453349</v>
+        <v>5.371386667992219</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-21.49435812099316</v>
+        <v>34.45705368901467</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-17.13260779204835</v>
+        <v>40.78255077644121</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-31.35372002698905</v>
+        <v>10.78323515431337</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-17.97444242064046</v>
+        <v>53.93840806556598</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-15.11791212982219</v>
+        <v>42.91629014162142</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-13.03886555463328</v>
+        <v>35.69336827569286</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-5.450185492300875</v>
+        <v>50.78995684802889</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-2.237317386892016</v>
+        <v>47.23022190312261</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-27.66746384122571</v>
+        <v>23.85462458251991</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-7.75454092743847</v>
+        <v>39.80779447554779</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-2.295335726115368</v>
+        <v>40.7985570586055</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-26.1867495718076</v>
+        <v>19.78559424656994</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-10.8116997767698</v>
+        <v>36.08628783126063</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-6.858733349137594</v>
+        <v>44.61223221024079</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-31.18197819944653</v>
+        <v>8.37306387506408</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-14.51068777741646</v>
+        <v>25.99813990914221</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-9.973653969386078</v>
+        <v>33.32277015942131</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-24.21563030373815</v>
+        <v>11.58808421454003</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-10.53300512624615</v>
+        <v>47.07682974883038</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-6.825024318533139</v>
+        <v>57.13527063493416</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-4.474618464282486</v>
+        <v>46.99697637958369</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>3.350370535580723</v>
+        <v>64.11947336506533</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>6.627149373536113</v>
+        <v>61.16825646301737</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-19.63103965952497</v>
+        <v>28.00668477517847</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.8058300368953439</v>
+        <v>44.18217018626979</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>6.47939592913535</v>
+        <v>52.52045600109575</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-13.85319357288489</v>
+        <v>62.63450670866651</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-11.80126538436306</v>
+        <v>62.19488873334548</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-4.191623470660488</v>
+        <v>71.638325409732</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-0.9779573932671468</v>
+        <v>70.48083705526473</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-26.50702870281148</v>
+        <v>31.63162096019507</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-6.514245990692658</v>
+        <v>68.22345626205968</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-1.05570773442733</v>
+        <v>64.26517574062568</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-25.10828927202384</v>
+        <v>21.58934120720882</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-30.01337109107227</v>
+        <v>12.29594429402114</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-13.27857603941723</v>
+        <v>43.81172899900365</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-8.742012392163659</v>
+        <v>49.28315893174455</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-22.97985037738391</v>
+        <v>18.81852810325928</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-9.243927816694168</v>
+        <v>68.79668651898963</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-5.53631256439985</v>
+        <v>74.88627645433473</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-3.212615827304177</v>
+        <v>81.04893670197463</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>4.633587722370422</v>
+        <v>91.16591337292378</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>7.910770524117424</v>
+        <v>90.63807062574934</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-18.44599811998869</v>
+        <v>41.0098684630759</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.071470994644585</v>
+        <v>80.71914330451912</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>7.744223885673804</v>
+        <v>82.14047110879015</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-13.46619311805014</v>
+        <v>62.37952473038315</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-11.42360341612128</v>
+        <v>57.68435222132928</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-3.816496709781404</v>
+        <v>64.02382935982975</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-0.6043608984006994</v>
+        <v>66.58689910575495</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-26.13506021883107</v>
+        <v>22.32254370248871</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-6.141745893939969</v>
+        <v>60.86416639660395</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-0.6863056301116899</v>
+        <v>60.31765415871041</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-24.75704121732063</v>
+        <v>13.3874878810712</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-9.324287333135715</v>
+        <v>44.70895307706083</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-5.373478460057299</v>
+        <v>52.1671216993465</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-29.63057724890346</v>
+        <v>7.844435215834494</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-12.89622073040094</v>
+        <v>41.12692056621407</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-8.362226438845568</v>
+        <v>49.24608004064478</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-22.58907944638455</v>
+        <v>13.73851801547344</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-8.853205206298966</v>
+        <v>65.0407447625817</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-5.147608162315194</v>
+        <v>74.52970180491988</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-2.833557431659429</v>
+        <v>77.72189084912961</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.009986470474857</v>
+        <v>85.26665066522038</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>8.28538167425134</v>
+        <v>89.74220793107496</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-18.07225127741368</v>
+        <v>30.90771083342212</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>2.445535018734049</v>
+        <v>74.45852941569107</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>8.114926602996363</v>
+        <v>78.93258077691301</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-14.40804460176449</v>
+        <v>61.28227298902229</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-12.34378950112827</v>
+        <v>49.3460049163043</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-4.733848094822676</v>
+        <v>57.68336236543367</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1.516847124767892</v>
+        <v>58.51313997220947</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-27.03806022939881</v>
+        <v>21.38421497451462</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-7.053018713661004</v>
+        <v>57.50276188162535</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1.58797595863112</v>
+        <v>61.34655760789403</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-25.60806491454723</v>
+        <v>13.09343197801784</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-10.17956560501898</v>
+        <v>45.01659456501372</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-6.222055952695868</v>
+        <v>58.29082652068357</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-30.54957037746965</v>
+        <v>11.67544558336876</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-13.82008859844889</v>
+        <v>44.82974670258</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-9.278099291481368</v>
+        <v>56.57181580861733</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-23.53327447615403</v>
+        <v>15.69018012109811</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-9.802130350869732</v>
+        <v>66.82407524977734</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-6.090070093844389</v>
+        <v>82.27429054707704</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-3.753937621932906</v>
+        <v>74.28602615833611</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>4.092714887013074</v>
+        <v>85.80692127841485</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>7.373400337642437</v>
+        <v>93.18507741313148</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-18.9764733689381</v>
+        <v>32.43004440256384</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1.533568519844479</v>
+        <v>75.85154695345346</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>7.213104150373198</v>
+        <v>86.65438689528973</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-8.876768981550711</v>
+        <v>16.90581667003506</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>6.434748097019508</v>
+        <v>36.64207903923035</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>10.12504127680282</v>
+        <v>39.12743425944308</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-12.95691677621903</v>
+        <v>3.250189283241042</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>3.60102469459153</v>
+        <v>25.7073423802243</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.824048430098372</v>
+        <v>29.81017692855993</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-5.468330252847778</v>
+        <v>12.07138174439787</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8.101400809126375</v>
+        <v>52.08553207227605</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>11.54513030547434</v>
+        <v>51.86636831589425</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>12.21127546666354</v>
+        <v>31.66031081627282</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>19.8048028084841</v>
+        <v>36.62157922905511</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.91506389411852</v>
+        <v>32.50266706307322</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-3.696874329209791</v>
+        <v>12.2886885600448</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.53932527609408</v>
+        <v>19.49028714629792</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.83671674550428</v>
+        <v>23.87340785855454</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-7.454559443862436</v>
+        <v>22.33337498185337</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>7.856845852634024</v>
+        <v>45.34978610973133</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>11.61620030660144</v>
+        <v>43.35989482585572</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-12.10140293264695</v>
+        <v>7.802679302221375</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>4.499195146820242</v>
+        <v>31.11715375067563</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>8.773844975053265</v>
+        <v>30.26575522054719</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-4.404076056467545</v>
+        <v>10.54938520571069</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.203173067299517</v>
+        <v>50.9540570514084</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-7.754407957192456</v>
+        <v>23.8221979447522</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>7.616597682868957</v>
+        <v>53.37076288727168</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>11.30631223674972</v>
+        <v>51.72692854702011</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-11.74070243511846</v>
+        <v>7.682522585499907</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>4.88194906073555</v>
+        <v>41.58815294743391</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>9.103842384197193</v>
+        <v>42.52021016750909</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-4.183145576371999</v>
+        <v>15.76067829205647</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>9.440888899813331</v>
+        <v>65.98177780572854</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>12.88367607301534</v>
+        <v>62.19552468653524</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>13.52130301431706</v>
+        <v>62.87181471478929</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.13639042359014</v>
+        <v>68.23226333321423</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>24.24718033947788</v>
+        <v>62.96114396547858</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-2.467980175670746</v>
+        <v>17.56071599373755</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>17.85041354401026</v>
+        <v>45.40899610014272</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>23.14614319217458</v>
+        <v>40.1604340215578</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-6.330903301734494</v>
+        <v>24.88236237785128</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>9.039802640437728</v>
+        <v>58.74998877331615</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>12.79918722381913</v>
+        <v>57.75956342718611</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-10.8846079700881</v>
+        <v>11.66529775107533</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>5.780529135632534</v>
+        <v>45.84617241182275</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>10.05473229620686</v>
+        <v>48.52702012855916</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-3.117820288970648</v>
+        <v>17.27885336104283</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>10.54359200624364</v>
+        <v>69.42179112572941</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-7.415329236404986</v>
+        <v>17.66687974062372</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.955360073499065</v>
+        <v>47.76956446529213</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>11.64313517671496</v>
+        <v>48.13085810085813</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-11.36984099386726</v>
+        <v>5.798380306121853</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.252770120876676</v>
+        <v>40.40592360751526</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>9.472283453176701</v>
+        <v>43.02067087306182</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-3.804716964781861</v>
+        <v>13.11223608455917</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>9.819616044653827</v>
+        <v>63.6267411010396</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>13.26053914213139</v>
+        <v>62.13157535068302</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.89009031206807</v>
+        <v>64.65872686430519</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.50282299123642</v>
+        <v>68.63218033786259</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.61210745738647</v>
+        <v>65.18043883068623</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-2.104809000251848</v>
+        <v>7.679768011756906</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.2144741611199</v>
+        <v>37.76407213131016</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>23.50703576738919</v>
+        <v>34.67268861516217</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-5.992887702217246</v>
+        <v>18.058754170332</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>9.377402717768234</v>
+        <v>50.75615256467258</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>13.1349791007863</v>
+        <v>54.23829456657604</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-10.51457241280154</v>
+        <v>8.704287378961116</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>6.150378400238907</v>
+        <v>41.94063372875128</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>10.42237380004345</v>
+        <v>48.60958458842737</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-2.740283859357291</v>
+        <v>13.57558238402881</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>10.92130435868773</v>
+        <v>64.25274812233839</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-8.253910455367873</v>
+        <v>11.6965869385445</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.111711115253186</v>
+        <v>42.31952380163304</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>10.80594171920955</v>
+        <v>46.77196219370376</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-12.27695414528593</v>
+        <v>8.017194532034953</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4.339825688146519</v>
+        <v>40.95750534977367</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.567064445146272</v>
+        <v>47.24947067641568</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-4.736832777127177</v>
+        <v>14.73075830075268</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>8.881935622937945</v>
+        <v>65.71199416188993</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>12.32910814585999</v>
+        <v>67.86247403841215</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>12.97816165029582</v>
+        <v>62.9440543112138</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.59333611715254</v>
+        <v>67.17552246085849</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>23.70743326921013</v>
+        <v>64.92128582753898</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-2.999608423712516</v>
+        <v>8.819187228406729</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>17.31055786785063</v>
+        <v>34.10172557730585</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.61298634855397</v>
+        <v>40.88774919240659</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-6.828947029888425</v>
+        <v>16.29685791794799</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>8.536433978768045</v>
+        <v>47.8781391337524</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>12.30020972408975</v>
+        <v>52.74034082407422</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-11.41971713959417</v>
+        <v>10.67918414761161</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>5.239644063815078</v>
+        <v>42.37724746292224</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>9.51902337602273</v>
+        <v>48.14401907466733</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-3.670313606775863</v>
+        <v>14.35367450505478</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>9.985913902584571</v>
+        <v>63.21230029555782</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>12.6922947882876</v>
+        <v>49.37404126784122</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.33985977148682</v>
+        <v>42.13312702199924</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.0518903181547</v>
+        <v>59.20201881645475</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.23258619824924</v>
+        <v>54.65436686914255</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.216578196876782</v>
+        <v>21.17201981006085</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>18.1316597219274</v>
+        <v>41.54009068870668</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>23.48685228223308</v>
+        <v>41.99064785690552</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-0.5521970934368454</v>
+        <v>22.25729351292735</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.11953247417921</v>
+        <v>45.20191593466184</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>19.02504277876546</v>
+        <v>49.29300472230078</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-4.576691299316948</v>
+        <v>7.879172838173933</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>12.42270041167023</v>
+        <v>28.92770473959971</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.89146241161121</v>
+        <v>33.0234617453591</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>3.712234307760724</v>
+        <v>10.27542589969157</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>17.6669417395039</v>
+        <v>52.98438492733932</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.3137442233938</v>
+        <v>58.74310728623909</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.22912433353774</v>
+        <v>50.67969346459223</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.18176474953433</v>
+        <v>69.62662329254539</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.43411707522558</v>
+        <v>65.20848612125714</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.143342369087549</v>
+        <v>24.51872017067531</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.01133162304268</v>
+        <v>46.17700756081668</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>32.59605301438418</v>
+        <v>50.16312081335873</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>14.0323376663226</v>
+        <v>69.29151657047048</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>14.65035148071097</v>
+        <v>67.46201541697403</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>22.38389517996014</v>
+        <v>79.76787003169012</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.56538264647291</v>
+        <v>77.68113521597419</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-0.9859210802225249</v>
+        <v>27.97864025519199</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>19.44439593060405</v>
+        <v>69.96444665957048</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>24.79875757579712</v>
+        <v>65.83797128873937</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>0.5937663474186508</v>
+        <v>25.01090068820912</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>16.32530973780251</v>
+        <v>62.58068585223793</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.23069720705338</v>
+        <v>62.07797619949682</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-3.336206959604851</v>
+        <v>12.18740755587676</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>13.72830906382516</v>
+        <v>48.26817763240771</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>18.19646710152768</v>
+        <v>49.8597084796646</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>5.023248158495619</v>
+        <v>17.20024913409196</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>19.03261441503391</v>
+        <v>75.59022912996873</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>22.67896131770186</v>
+        <v>76.97471488009256</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>23.56526349333155</v>
+        <v>84.70785330682925</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>31.53961627031437</v>
+        <v>97.39680546673885</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>34.79238889523161</v>
+        <v>95.57522604697159</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>7.399822864794672</v>
+        <v>37.70149331498182</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.35054105882295</v>
+        <v>83.90103893760485</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.9343268166659</v>
+        <v>80.93114181398015</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>14.40832537574297</v>
+        <v>69.00197278710968</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>15.01791824162598</v>
+        <v>62.8536543160299</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>22.74894267055887</v>
+        <v>72.06268752315006</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.92897726671609</v>
+        <v>73.89763920603927</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-0.623779049528423</v>
+        <v>20.08280973730851</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.80721092335973</v>
+        <v>63.30855959607331</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.15861628338526</v>
+        <v>62.51420492965865</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>0.9342443251981791</v>
+        <v>16.9352976952305</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.66522197303822</v>
+        <v>55.61010478677753</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.56860792659639</v>
+        <v>58.28010251217285</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-2.963947683849995</v>
+        <v>7.894800470202991</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>14.10022308628672</v>
+        <v>45.30022432669688</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.56591881103174</v>
+        <v>49.59291301965726</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.402879479560923</v>
+        <v>12.14766330595296</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>19.41227725622889</v>
+        <v>71.40208082964391</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.05670955504704</v>
+        <v>76.27093461997526</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.93429487642859</v>
+        <v>81.02627713874551</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.90598542432807</v>
+        <v>91.12856522001518</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>35.15704637021619</v>
+        <v>94.56772150919265</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>7.763806666627829</v>
+        <v>28.89231023773513</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.71496626745709</v>
+        <v>78.26570161271384</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>34.29553363804261</v>
+        <v>78.25849604392803</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.47890809555251</v>
+        <v>69.30224314178375</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>14.10867544563834</v>
+        <v>56.6731785636009</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>21.84244125337196</v>
+        <v>67.55515019602308</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.02724298977139</v>
+        <v>67.41144287224101</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-1.516127800052999</v>
+        <v>22.85341500538989</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>18.90610438177269</v>
+        <v>63.00218089226266</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.26695482928788</v>
+        <v>65.7420396448734</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>0.09594144003085603</v>
+        <v>16.32433118087876</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>15.82236712196902</v>
+        <v>55.05703354433585</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.73235669516723</v>
+        <v>63.1689566172552</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-3.87096844642295</v>
+        <v>12.41158795532982</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>13.18799628479287</v>
+        <v>49.02193192899941</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>17.66158719036272</v>
+        <v>56.87349286662243</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>4.471408310131594</v>
+        <v>15.35600161500699</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>18.47579033829246</v>
+        <v>73.8929915811127</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>22.12657819552915</v>
+        <v>84.30076779317707</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>23.02471565237546</v>
+        <v>77.89763440809307</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.99946104726875</v>
+        <v>91.95127591440497</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>34.2557157475242</v>
+        <v>97.7684911273136</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>6.870107650148071</v>
+        <v>32.24769714102193</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.8130815879375</v>
+        <v>81.42271235996387</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>33.40363687691764</v>
+        <v>86.83125642498815</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>16.90320442177934</v>
+        <v>12.37897191885703</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>32.10460296030346</v>
+        <v>15.89245760763179</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>35.82305148659334</v>
+        <v>22.53949214448116</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.4366532189774</v>
+        <v>-0.7742599739171396</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.85926702085126</v>
+        <v>7.331836604328171</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>34.12133768632801</v>
+        <v>14.21040185008442</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.02684438101662</v>
+        <v>5.610463533041194</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>35.4798352015063</v>
+        <v>28.03176681797467</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>38.95480731143508</v>
+        <v>31.88497586627966</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>38.0920117657877</v>
+        <v>10.15364541527632</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>45.56819534934363</v>
+        <v>14.07535409814064</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>48.73583970139632</v>
+        <v>14.47421140562215</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.76898461376319</v>
+        <v>12.94279398358838</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>41.82817433226582</v>
+        <v>14.12749502885817</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>47.18186633469421</v>
+        <v>27.4087823245911</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.25431693421066</v>
+        <v>10.51911165550788</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.46929172663411</v>
+        <v>13.81083539308293</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>37.2599219042288</v>
+        <v>17.45249294697362</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>14.20509151752728</v>
+        <v>-5.562462246055105</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>30.68792188462893</v>
+        <v>-0.7049792453549237</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>35.00426285675896</v>
+        <v>2.823018185469621</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>23.00642671657291</v>
+        <v>-5.850525381915688</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>36.51125217456002</v>
+        <v>13.650958676711</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.06768447192792</v>
+        <v>15.10941401273581</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>33.32857251989081</v>
+        <v>27.57367862793911</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>37.04644180342748</v>
+        <v>31.0184075023856</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.69722455772065</v>
+        <v>0.7251294473580394</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.18449300572179</v>
+        <v>19.37239718129682</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.4454771462979</v>
+        <v>23.89288986259755</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>23.35822975209911</v>
+        <v>6.421514261255776</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.86549098190795</v>
+        <v>38.13386824875248</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>40.33954786787729</v>
+        <v>39.37183573000605</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>39.44650265589753</v>
+        <v>39.50352150617542</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>46.94415875743057</v>
+        <v>43.70278615276504</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>50.11251557617001</v>
+        <v>43.45410103622081</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.0418647867487</v>
+        <v>17.71960225021623</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>43.18323023016841</v>
+        <v>39.90489127807356</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>48.53528682726968</v>
+        <v>43.70602110043901</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>19.42040579864724</v>
+        <v>12.91211976627065</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.69469851299099</v>
+        <v>26.63141864271099</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.48538045592191</v>
+        <v>32.21599370061828</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.46653966282577</v>
+        <v>-0.765017796845072</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.01387377751409</v>
+        <v>14.45245997947998</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.3298370237221</v>
+        <v>22.3640202802891</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>24.33920659969797</v>
+        <v>1.751548685654186</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>37.89817845849567</v>
+        <v>32.53850042862377</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>18.38986295109901</v>
+        <v>8.540468788640977</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>33.65059660979396</v>
+        <v>21.49138653358488</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>37.36649721950083</v>
+        <v>27.41785696443459</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.05116367223471</v>
+        <v>-1.636713669694377</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.53856895281948</v>
+        <v>17.64558857985181</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>35.79714755850834</v>
+        <v>24.30459959475342</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.71902950813903</v>
+        <v>3.25305286072771</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>37.22674693321799</v>
+        <v>35.1822860439885</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>40.69891741100565</v>
+        <v>39.19687569535724</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.79893241691502</v>
+        <v>40.64526975374066</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>47.2943542514802</v>
+        <v>43.48245331988291</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>50.46119672772342</v>
+        <v>45.35308512823902</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>23.38894431865631</v>
+        <v>7.191097080247665</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>43.53145050171911</v>
+        <v>31.83909660861721</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>48.88029565701066</v>
+        <v>38.20570783473772</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>19.74166518817817</v>
+        <v>6.863005884248349</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.01569284532435</v>
+        <v>19.40927779844355</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>38.80454066211482</v>
+        <v>29.9564606189008</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.81981234663857</v>
+        <v>-3.05814899065356</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.36712277825539</v>
+        <v>11.21687643877133</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>36.68085732210688</v>
+        <v>23.57556085701481</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.69927689158274</v>
+        <v>-1.209770881709357</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>38.25857040030755</v>
+        <v>28.09910714177705</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>17.57940968353414</v>
+        <v>0.5117343615925343</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.83481415985221</v>
+        <v>13.94573696309371</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.55722863038736</v>
+        <v>24.0330448992812</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.17202829159038</v>
+        <v>-2.540810228865283</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>30.65332076291995</v>
+        <v>15.11068585005247</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>34.91967730944103</v>
+        <v>25.5420280964762</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.81607521894468</v>
+        <v>1.069376357799609</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>36.31797625513461</v>
+        <v>33.43571083735786</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>39.7964424070524</v>
+        <v>41.16758019337497</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>38.91386452241578</v>
+        <v>33.83635090477766</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>46.4115340280938</v>
+        <v>37.10566086425926</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>49.58318709685237</v>
+        <v>40.10918731698193</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>22.52046799447795</v>
+        <v>2.44765104416296</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>42.65345278756988</v>
+        <v>21.52731126577152</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>48.01226085131071</v>
+        <v>38.51564767090242</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>18.9333984947817</v>
+        <v>3.030186349518736</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.20227413528622</v>
+        <v>14.05446851128116</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>37.99737244252758</v>
+        <v>26.06029790544113</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.94228683054135</v>
+        <v>-3.775391111909887</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>31.48375061946616</v>
+        <v>8.63911896125893</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>35.80491166836732</v>
+        <v>20.17770342383245</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.7980390105008</v>
+        <v>-3.420378079088312</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>37.35174005641159</v>
+        <v>23.65460197388422</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>40.0342608271683</v>
+        <v>17.69036285763754</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.14704382996145</v>
+        <v>7.028842491368387</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>46.74808107598574</v>
+        <v>19.12508762691243</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>49.98932884213482</v>
+        <v>17.36141525780588</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.16159395399114</v>
+        <v>-0.7353674502876366</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>43.35443978740489</v>
+        <v>8.880449987767285</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>48.76965254338826</v>
+        <v>15.63309911736239</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.87274434074234</v>
+        <v>13.96108325037078</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>40.46231072560423</v>
+        <v>21.23837927740797</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>44.39370853845643</v>
+        <v>28.78942590001562</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>21.4205164772028</v>
+        <v>-1.70079391007307</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>38.31587459041259</v>
+        <v>4.812048723212012</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>42.82199208656505</v>
+        <v>11.64493996305213</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.80790056001294</v>
+        <v>-1.055546356870703</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>44.67211488473852</v>
+        <v>25.00724469070167</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>48.34853449007723</v>
+        <v>33.86234711190275</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>47.7576762924098</v>
+        <v>23.43524036789971</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>55.60549767506154</v>
+        <v>35.66304807601698</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>58.90903237317602</v>
+        <v>34.22905097506792</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.22500074489113</v>
+        <v>6.564687106732915</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>51.95528556140095</v>
+        <v>19.82840857000951</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>57.59241609283383</v>
+        <v>29.2416406905408</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>41.42085937594056</v>
+        <v>38.98124787075746</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.50233068201479</v>
+        <v>34.12342177422259</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.12480437740663</v>
+        <v>42.07173392008687</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>51.36703129907787</v>
+        <v>42.97640220923353</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>24.43654737761377</v>
+        <v>8.903641386300407</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>44.711479514655</v>
+        <v>40.44496105421518</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.12591854186809</v>
+        <v>43.11285259246937</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.06145721303466</v>
+        <v>20.51738619821285</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.71092188261481</v>
+        <v>42.11228853985826</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>45.64219856846894</v>
+        <v>46.24181257933834</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.70600452070889</v>
+        <v>7.831881821709487</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.66652610255362</v>
+        <v>28.99464921526434</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.17208390120493</v>
+        <v>34.42662280802551</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>32.1657768891146</v>
+        <v>11.47870176481784</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.08469597106678</v>
+        <v>52.89225399202149</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>49.76069058312298</v>
+        <v>58.54542494064752</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.13893378232163</v>
+        <v>63.92498891232694</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.00839507063946</v>
+        <v>70.47996807183279</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.31252129802004</v>
+        <v>71.99420193582472</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>32.5260122341278</v>
+        <v>27.22999640041205</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>53.33911489797846</v>
+        <v>65.44419472155998</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>58.97534468365588</v>
+        <v>68.7856102796725</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.7795078307736</v>
+        <v>39.92041145398721</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>40.85369448962541</v>
+        <v>30.01269497587563</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>48.47376565094498</v>
+        <v>35.20540635979997</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>51.71452880890456</v>
+        <v>40.27051545605146</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.78276579810023</v>
+        <v>1.633376139105849</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>45.05860463392042</v>
+        <v>34.59354868222157</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>50.47004876927346</v>
+        <v>41.11828476588531</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.38560446040861</v>
+        <v>14.42231348041667</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>42.03466533968061</v>
+        <v>37.13160806453013</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>45.96391110409792</v>
+        <v>44.90864891081079</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.06196477514364</v>
+        <v>5.520486066833779</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>40.02231869798293</v>
+        <v>28.00184557821376</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>44.52538659309961</v>
+        <v>36.5895731386663</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.52841068461806</v>
+        <v>8.561546358005689</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>46.44751918495103</v>
+        <v>50.84420523995146</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>50.12157647205737</v>
+        <v>60.46204430611694</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>49.49218898463873</v>
+        <v>61.94624202031882</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>57.35910113900295</v>
+        <v>66.26895498635864</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>60.66150921502737</v>
+        <v>73.30897204597063</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.87448596153629</v>
+        <v>20.29791926862447</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>53.68827920483965</v>
+        <v>61.8579128707058</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>59.32124845518621</v>
+        <v>68.74130734621514</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.87868935431375</v>
+        <v>36.9070023909059</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>39.97096114560134</v>
+        <v>19.23161737611584</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>47.59358543182985</v>
+        <v>25.75619469621496</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>50.83911819457394</v>
+        <v>29.08741775519036</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>23.91636972405452</v>
+        <v>-0.9568674604646112</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>44.18307575940798</v>
+        <v>28.10461846039131</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.60405009363008</v>
+        <v>38.74687681485959</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.5742695312932</v>
+        <v>8.898760919295576</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.218520302549</v>
+        <v>31.25268606216133</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.15442418280995</v>
+        <v>44.23862628277059</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>22.18166533736764</v>
+        <v>4.396994436009127</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.13653460800184</v>
+        <v>25.6991781052641</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.64754924179327</v>
+        <v>37.63486448064683</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.62482650001723</v>
+        <v>5.542774410573845</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>45.53867017664154</v>
+        <v>46.69072846716244</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.21912595627057</v>
+        <v>61.62117838217084</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>48.60829917190996</v>
+        <v>50.619693993856</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>56.4780871951101</v>
+        <v>58.66786075488776</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.78568288642406</v>
+        <v>68.10701476549738</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>32.0059419695021</v>
+        <v>14.82112105906678</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.81115562323472</v>
+        <v>55.30291269274805</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>58.45419894090042</v>
+        <v>67.8713782584892</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>31.75493000070088</v>
+        <v>5.677124636819006</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.49183900073434</v>
+        <v>15.24311081141223</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>51.73608662745573</v>
+        <v>23.73459238187334</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.32032249413371</v>
+        <v>-2.504124573147909</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>45.29484520768446</v>
+        <v>17.72828154326005</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>50.18432297130848</v>
+        <v>23.81828021705281</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>38.06052968507844</v>
+        <v>4.28030729139471</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>51.94970904971789</v>
+        <v>35.47128638909258</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.94683748679522</v>
+        <v>41.13959637318411</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>53.91381233496989</v>
+        <v>16.07671238799996</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>61.7570566728396</v>
+        <v>23.48111084498849</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>65.33001458277108</v>
+        <v>27.28605960056914</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.47736407146199</v>
+        <v>14.55302763681532</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>57.18315403405924</v>
+        <v>17.77605531176316</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>63.30338339060285</v>
+        <v>32.82375011647373</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.21671909037081</v>
+        <v>16.60057962001629</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>49.9873141801093</v>
+        <v>28.63337002624559</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>54.31895063516022</v>
+        <v>35.98157285351465</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.18037418260838</v>
+        <v>3.643540205272124</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>47.23765093014187</v>
+        <v>17.39796406857965</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>52.19854432786815</v>
+        <v>23.2843595271625</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>40.21780444746506</v>
+        <v>1.637702870539954</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>54.17841902615061</v>
+        <v>32.60518743968895</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>33.01564093223455</v>
+        <v>9.41286565644949</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>48.81476608582711</v>
+        <v>30.82128797930905</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>53.05910579674227</v>
+        <v>35.45467942898264</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.6824296222663</v>
+        <v>0.6013394132124468</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>46.7245507671177</v>
+        <v>34.16176956434504</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>51.61371499331404</v>
+        <v>38.32599027223692</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>39.49860609534218</v>
+        <v>7.179054700501982</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>53.4445032280675</v>
+        <v>50.69881584611828</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>57.44134911387643</v>
+        <v>53.07122152895988</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>55.37328982254695</v>
+        <v>54.48128738973256</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>63.23913005223078</v>
+        <v>61.26290812210841</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>66.8131698795095</v>
+        <v>63.19891866715476</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.85018195824765</v>
+        <v>22.91760617100654</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>58.64180086920911</v>
+        <v>51.52509202757803</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.76127710637705</v>
+        <v>56.50875416848545</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>35.48115757654154</v>
+        <v>19.1814861286168</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>51.31377962162547</v>
+        <v>43.26280130680961</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>55.64621454796169</v>
+        <v>53.47265938718462</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>31.54551254697399</v>
+        <v>10.8391071186629</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>48.67021697362443</v>
+        <v>36.09376909388</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.63158924353445</v>
+        <v>49.36292438013757</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.65960727219522</v>
+        <v>12.71651136129223</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>55.67679804279531</v>
+        <v>56.74339759845435</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.34487614803856</v>
+        <v>2.353703224483777</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>49.14393658021734</v>
+        <v>25.76579848726978</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>53.38610786502208</v>
+        <v>33.01590028780431</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.04482010170647</v>
+        <v>-1.904172301490817</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>47.08721746403003</v>
+        <v>33.76039250436837</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>51.97371955813767</v>
+        <v>40.19515555781224</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>39.86784475321919</v>
+        <v>3.606454801522567</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>53.81433813060333</v>
+        <v>48.86322398884924</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>57.80908005372078</v>
+        <v>54.18975283346458</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>55.73403539948565</v>
+        <v>56.20400477549846</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>63.59751013294086</v>
+        <v>61.53356675016136</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>67.16985443701026</v>
+        <v>65.35561182741193</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.20546042784108</v>
+        <v>10.20958810158294</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>58.99843259800732</v>
+        <v>43.08013337275992</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>65.11436906582401</v>
+        <v>51.29485699461522</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>35.80880915625652</v>
+        <v>11.44340288412567</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>51.64121938586452</v>
+        <v>35.40066678093346</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>55.97163229722006</v>
+        <v>51.02698443102562</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.90659192472619</v>
+        <v>7.556083298522214</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>49.03137131360509</v>
+        <v>32.82669386190801</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>53.99027069270304</v>
+        <v>51.13269209730854</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>42.02742456118064</v>
+        <v>8.484710754415815</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>56.04504168156258</v>
+        <v>52.08952552528355</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>32.5073716398775</v>
+        <v>-4.466282824695146</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>48.30057527886909</v>
+        <v>19.14172121406924</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>52.54980336763876</v>
+        <v>31.58585635871159</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.1353862902505</v>
+        <v>-1.592846323534975</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>46.1710383609081</v>
+        <v>32.54011837599472</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>51.06599070144399</v>
+        <v>42.55962393607685</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>38.93390423692625</v>
+        <v>2.034779466172143</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>52.87400949247225</v>
+        <v>47.3699809709151</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>56.87561326616031</v>
+        <v>57.53140107803624</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>54.81854114092943</v>
+        <v>46.8934130834658</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>62.68436948095541</v>
+        <v>53.25099587180013</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>66.2620291343038</v>
+        <v>59.45392991547807</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>37.30730525799362</v>
+        <v>4.84664359039478</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>58.0898993633101</v>
+        <v>30.29602197106723</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>64.21665362635093</v>
+        <v>50.9600803523636</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>34.97451169025615</v>
+        <v>7.892964901764554</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>50.80129919437614</v>
+        <v>31.36865082191353</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.13848643273082</v>
+        <v>48.61651678145475</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.99973226196317</v>
+        <v>5.97799036412431</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>48.11809613713717</v>
+        <v>30.87971559330493</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>53.08507414627827</v>
+        <v>46.5633210855558</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>41.09623483705138</v>
+        <v>4.269413197962066</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>55.10774329381849</v>
+        <v>46.62917639939567</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>58.23754549498877</v>
+        <v>40.80236884451372</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>56.11349411478587</v>
+        <v>26.75162001825831</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>64.11079320438195</v>
+        <v>48.92872027902178</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>67.77060652837173</v>
+        <v>53.23656844172761</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.0046061749245</v>
+        <v>10.92333395018041</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>59.88119839296534</v>
+        <v>35.45565334665493</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>66.07925809089042</v>
+        <v>41.66264883643753</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>39.63545108841591</v>
+        <v>10.86269618030982</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>55.85375670931145</v>
+        <v>25.8349384655362</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>60.31151940309604</v>
+        <v>34.34774979284122</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.23852270184636</v>
+        <v>0.7884207175350078</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>53.79708738111194</v>
+        <v>15.79780724976534</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>58.92959554111087</v>
+        <v>22.62707073652946</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>46.80076387321347</v>
+        <v>-2.951749601408178</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>61.19549854175023</v>
+        <v>33.54888126164496</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>65.39203806505361</v>
+        <v>43.88455647778122</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>63.65993686589377</v>
+        <v>32.73131531992878</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>71.93740763310818</v>
+        <v>54.41937482026962</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>75.64815178724301</v>
+        <v>57.73434609698812</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>45.97042835216779</v>
+        <v>6.70636712343617</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>67.48792404205969</v>
+        <v>33.72565889720541</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>73.89178754166755</v>
+        <v>40.4110718724252</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>59.73629995332469</v>
+        <v>68.11360423249847</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>57.57593392328758</v>
+        <v>62.71987280617505</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>65.59579828140929</v>
+        <v>77.95109659564689</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>69.25702086115754</v>
+        <v>84.72959438141795</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.38172913750621</v>
+        <v>26.37530644964595</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>61.34404592140865</v>
+        <v>77.89013605330217</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>67.54230816984771</v>
+        <v>80.31246877775025</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>40.92174466069651</v>
+        <v>17.691541772094</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>57.20284813586181</v>
+        <v>49.66079040750409</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>61.66115589851115</v>
+        <v>54.99868058999486</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.62696779375106</v>
+        <v>12.02709641715831</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>55.25384084645709</v>
+        <v>43.94124366856629</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>60.38655349559928</v>
+        <v>51.3081026213994</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>48.26687481743011</v>
+        <v>13.93388534836605</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>62.71893193184346</v>
+        <v>68.65930096399586</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>66.91567211343865</v>
+        <v>75.90434256147587</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>65.14766481921629</v>
+        <v>83.79953617827078</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>73.44806150367604</v>
+        <v>96.90391628550766</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>77.15972321612907</v>
+        <v>102.8167847231161</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>47.37301718525173</v>
+        <v>33.69171406989599</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>68.97723917401248</v>
+        <v>91.16122629271163</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>75.38107433506057</v>
+        <v>92.22135955351486</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>60.10259327293597</v>
+        <v>69.33114362700884</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>57.93490031622053</v>
+        <v>57.4151232842015</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>65.95219642020771</v>
+        <v>69.06936388454658</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>69.61178218608161</v>
+        <v>80.16462172613281</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>40.7354749001004</v>
+        <v>16.3678131480906</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>61.69885251898969</v>
+        <v>70.79154566603495</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>67.89380796575158</v>
+        <v>77.67032020904117</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>41.25367698780185</v>
+        <v>9.314016108470302</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>57.53441217695939</v>
+        <v>43.64353276847682</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>61.9904833760164</v>
+        <v>53.1142842602072</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>37.99208190680927</v>
+        <v>7.922709679830088</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>55.61886121494122</v>
+        <v>42.37759025032652</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>60.74882068238855</v>
+        <v>53.43966625439941</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>48.63868306201861</v>
+        <v>9.291917489770452</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>63.09101429415371</v>
+        <v>66.12985471307886</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>67.28559529100646</v>
+        <v>77.86173753666419</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>65.5098166427583</v>
+        <v>80.70459318384283</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>73.80751487891516</v>
+        <v>90.79383126753247</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>77.51725481056664</v>
+        <v>102.635289785643</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>47.73034011470708</v>
+        <v>23.17936666170575</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>69.33538315176378</v>
+        <v>85.70201122263089</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>75.73562057663561</v>
+        <v>91.15637154072259</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>59.17185493676492</v>
+        <v>65.69711048211008</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>57.0228176482188</v>
+        <v>42.60067311815294</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>65.04283253764581</v>
+        <v>56.56344229335888</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>68.70768051367027</v>
+        <v>66.55107615232956</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.84040646324264</v>
+        <v>11.06975864384945</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>60.79388713066172</v>
+        <v>60.11398866216291</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>66.99919893062389</v>
+        <v>71.43942415529236</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>40.41404790809997</v>
+        <v>6.025616775196731</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>56.68953040762722</v>
+        <v>39.8249091087653</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>61.15281017514899</v>
+        <v>56.07017639724582</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>37.08025563951826</v>
+        <v>8.171823943548002</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>54.70102245536924</v>
+        <v>41.80384865675795</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>59.83960847857793</v>
+        <v>56.04400982243858</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>47.70284218856532</v>
+        <v>5.560647589299013</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>62.14942556922185</v>
+        <v>60.97664086862062</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>66.35097480342328</v>
+        <v>79.81629602809525</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>64.59452791522253</v>
+        <v>67.41918060739664</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>72.89523397799566</v>
+        <v>82.02721866080044</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>76.61070253843978</v>
+        <v>98.53294435310247</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>46.83097315524385</v>
+        <v>17.16941827305173</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>68.42671109306669</v>
+        <v>76.36269576940066</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.8378886060799</v>
+        <v>88.94552320045069</v>
       </c>
     </row>
   </sheetData>
